--- a/Analytics with Excel - Part I.xlsx
+++ b/Analytics with Excel - Part I.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drewhowell/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drew.howell\Desktop\School\20200819_Analytics with Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB036A8-0346-42CC-8BC4-893A753A0B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rpt. 2650012" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -100,9 +101,6 @@
     <t>Report:</t>
   </si>
   <si>
-    <t>Employee Expenses</t>
-  </si>
-  <si>
     <t>Emplyee Spending</t>
   </si>
   <si>
@@ -169,12 +167,6 @@
     <t>Hudson</t>
   </si>
   <si>
-    <t>Productive (8 or greater) Y/N</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
     <t>Angela</t>
   </si>
   <si>
@@ -188,12 +180,21 @@
   </si>
   <si>
     <t>Darryl</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Employee Expenses vs. Productivity Scores</t>
+  </si>
+  <si>
+    <t>Productive (7 or greater) Y/N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -645,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -658,9 +659,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -668,21 +666,9 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,26 +676,46 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,14 +745,20 @@
       <xdr:rowOff>13510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>999788</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>879</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>188059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1074,589 +1086,625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" customWidth="1"/>
-    <col min="19" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="19" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="2" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18">
+      <c r="E6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="36">
         <v>43983</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="36">
         <v>43990</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="36">
         <v>43997</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="36">
         <v>44004</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="37">
         <v>44011</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="O6" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="15">
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="14">
         <v>27.13</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>29.630000000000003</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>15.64</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>17.100000000000001</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>23.14</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="25">
+      <c r="N7" s="20">
         <v>8</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="38">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="29">
         <v>2020</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>22.240000000000002</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>19.91</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>23.59</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>20.25</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>33.97</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="25">
+      <c r="N8" s="20">
         <v>7</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>48.91</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>51.22</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>25.75</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>50.52</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>72.12</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="25">
+      <c r="N9" s="20">
         <v>1</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>40.370000000000005</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>28.16</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>32.659999999999997</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>27.73</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>19.32</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="25">
+      <c r="N10" s="20">
         <v>9</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="29">
         <v>128</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>11.92</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>16.34</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>27.630000000000003</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>18.420000000000002</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>28.25</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="25">
+      <c r="N11" s="20">
         <v>6</v>
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>15.48</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>21.65</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>15.08</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>21.71</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>20.190000000000001</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="25">
+      <c r="N12" s="20">
         <v>4</v>
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="11" t="s">
+    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>10.08</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>15.23</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>20.36</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>12.54</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>15.99</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="25">
+      <c r="N13" s="20">
         <v>2</v>
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11" t="s">
+    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>51.54</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>40.44</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>56.73</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>17.16</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>65.39</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="25">
-        <v>3</v>
+      <c r="N14" s="20">
+        <v>5</v>
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="11">
+        <v>25.41</v>
+      </c>
+      <c r="G15" s="12">
+        <v>25.41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>25.41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>11.12</v>
+      </c>
+      <c r="J15" s="13">
+        <v>25.41</v>
+      </c>
+      <c r="K15" s="17"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="20">
+        <v>5</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="11">
+        <v>18.12</v>
+      </c>
+      <c r="G16" s="12">
+        <v>31.45</v>
+      </c>
+      <c r="H16" s="12">
+        <v>21.02</v>
+      </c>
+      <c r="I16" s="12">
+        <v>19.54</v>
+      </c>
+      <c r="J16" s="13">
+        <v>20.87</v>
+      </c>
+      <c r="K16" s="17"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="25"/>
+      <c r="N16" s="20">
+        <v>7</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="G17" s="12">
+        <v>10.87</v>
+      </c>
+      <c r="H17" s="12">
+        <v>9</v>
+      </c>
+      <c r="I17" s="12">
+        <v>10.52</v>
+      </c>
+      <c r="J17" s="13">
+        <v>19.77</v>
+      </c>
+      <c r="K17" s="17"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="20">
+        <v>8</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="11" t="s">
+    <row r="18" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>24.89</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>29.78</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>38.64</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>40.33</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>51.06</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="25">
-        <v>7</v>
+      <c r="N18" s="20">
+        <v>6</v>
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="27">
+    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="22">
         <v>6.23</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="23">
         <v>0.42</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="23">
         <v>52</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="23">
         <v>12.33</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="24">
         <v>2.5</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="25">
+      <c r="N19" s="20">
         <v>3</v>
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="D20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="26" t="s">
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="22">
         <v>24.33</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="23">
         <v>29.65</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="23">
         <v>40.730000000000004</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="23">
         <v>15.3</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="24">
         <v>29.060000000000002</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="25">
+      <c r="N20" s="20">
         <v>9</v>
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="D21" s="39" t="s">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="D21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="D22" s="39" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="D22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="D24" s="32" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="D24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="D25" s="32" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="D25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="L27" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="L27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1670,9 +1718,9 @@
       <c r="O28" s="4"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1686,9 +1734,9 @@
       <c r="O29" s="4"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1702,9 +1750,9 @@
       <c r="O30" s="4"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1718,9 +1766,9 @@
       <c r="O31" s="4"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1734,9 +1782,9 @@
       <c r="O32" s="4"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1750,8 +1798,8 @@
       <c r="O33" s="4"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="23"/>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="19"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1765,8 +1813,8 @@
       <c r="O34" s="4"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="23"/>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="19"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1780,8 +1828,8 @@
       <c r="O35" s="4"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="23"/>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="19"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1795,8 +1843,8 @@
       <c r="O36" s="4"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="23"/>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="19"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1810,8 +1858,8 @@
       <c r="O37" s="4"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="23"/>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="19"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1825,8 +1873,8 @@
       <c r="O38" s="4"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="23"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="19"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1840,7 +1888,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1854,7 +1902,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
